--- a/correlation/ferrari/minutely/correlation/ferrari_correlation_volume_with_semantics.xlsx
+++ b/correlation/ferrari/minutely/correlation/ferrari_correlation_volume_with_semantics.xlsx
@@ -429,22 +429,22 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.002479938072229209</v>
+        <v>0.003976229511616862</v>
       </c>
       <c r="D2">
-        <v>0.004850444029013742</v>
+        <v>0.0009074299268696581</v>
       </c>
       <c r="E2">
-        <v>0.002800790629343179</v>
+        <v>0.001932320879392263</v>
       </c>
       <c r="F2">
-        <v>-0.00365422881739263</v>
+        <v>-0.003766099349497437</v>
       </c>
       <c r="G2">
-        <v>0.002800790629343522</v>
+        <v>0.004908670688597097</v>
       </c>
       <c r="H2">
-        <v>-0.004617013016689983</v>
+        <v>0.0007217283228192117</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002479938072229209</v>
+        <v>0.003976229511616862</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5245140701201746</v>
+        <v>0.2161023743308233</v>
       </c>
       <c r="E3">
-        <v>0.647667615697103</v>
+        <v>0.3724420858465111</v>
       </c>
       <c r="F3">
-        <v>-0.04182691840749346</v>
+        <v>0.02702334771747504</v>
       </c>
       <c r="G3">
-        <v>0.6476676156961815</v>
+        <v>0.4733532192531167</v>
       </c>
       <c r="H3">
-        <v>-0.2997601788842511</v>
+        <v>-0.237674031858435</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.004850444029013742</v>
+        <v>0.0009074299268696581</v>
       </c>
       <c r="C4">
-        <v>0.5245140701201746</v>
+        <v>0.2161023743308233</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5885856292499937</v>
+        <v>0.2004610569623699</v>
       </c>
       <c r="F4">
-        <v>-0.7432874855510639</v>
+        <v>-0.5533252617315993</v>
       </c>
       <c r="G4">
-        <v>0.5885856292482798</v>
+        <v>0.4306438090619176</v>
       </c>
       <c r="H4">
-        <v>-0.9466974607963257</v>
+        <v>-0.608267048858778</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002800790629343179</v>
+        <v>0.001932320879392263</v>
       </c>
       <c r="C5">
-        <v>0.647667615697103</v>
+        <v>0.3724420858465111</v>
       </c>
       <c r="D5">
-        <v>0.5885856292499937</v>
+        <v>0.2004610569623699</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.09784950983213697</v>
+        <v>0.1773401321656126</v>
       </c>
       <c r="G5">
-        <v>1.000000000001976</v>
+        <v>0.3403657260104629</v>
       </c>
       <c r="H5">
-        <v>-0.3073306289574512</v>
+        <v>-0.03179271218031444</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.00365422881739263</v>
+        <v>-0.003766099349497437</v>
       </c>
       <c r="C6">
-        <v>-0.04182691840749346</v>
+        <v>0.02702334771747504</v>
       </c>
       <c r="D6">
-        <v>-0.7432874855510639</v>
+        <v>-0.5533252617315993</v>
       </c>
       <c r="E6">
-        <v>0.09784950983213697</v>
+        <v>0.1773401321656126</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.09784950983243479</v>
+        <v>-0.2073489160944889</v>
       </c>
       <c r="H6">
-        <v>0.9169641030309377</v>
+        <v>0.4208737917806997</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002800790629343522</v>
+        <v>0.004908670688597097</v>
       </c>
       <c r="C7">
-        <v>0.6476676156961815</v>
+        <v>0.4733532192531167</v>
       </c>
       <c r="D7">
-        <v>0.5885856292482798</v>
+        <v>0.4306438090619176</v>
       </c>
       <c r="E7">
-        <v>1.000000000001976</v>
+        <v>0.3403657260104629</v>
       </c>
       <c r="F7">
-        <v>0.09784950983243479</v>
+        <v>-0.2073489160944889</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-0.3073306289579025</v>
+        <v>-0.08637188417942643</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,22 +582,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.004617013016689983</v>
+        <v>0.0007217283228192117</v>
       </c>
       <c r="C8">
-        <v>-0.2997601788842511</v>
+        <v>-0.237674031858435</v>
       </c>
       <c r="D8">
-        <v>-0.9466974607963257</v>
+        <v>-0.608267048858778</v>
       </c>
       <c r="E8">
-        <v>-0.3073306289574512</v>
+        <v>-0.03179271218031444</v>
       </c>
       <c r="F8">
-        <v>0.9169641030309377</v>
+        <v>0.4208737917806997</v>
       </c>
       <c r="G8">
-        <v>-0.3073306289579025</v>
+        <v>-0.08637188417942643</v>
       </c>
       <c r="H8">
         <v>1</v>
